--- a/demo/withdrawal/test_data/withdrawal_data.xlsx
+++ b/demo/withdrawal/test_data/withdrawal_data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>主账号</t>
   </si>
@@ -38,22 +38,19 @@
     <t>出金后账户余额</t>
   </si>
   <si>
-    <t>10000000027@uitest.com</t>
+    <t>预期结果</t>
+  </si>
+  <si>
+    <t>154689964@qq.com</t>
   </si>
   <si>
     <t>Tl123456</t>
   </si>
   <si>
-    <t>47500.00</t>
+    <t>10000000027@uitest.com</t>
   </si>
   <si>
-    <t>46840.00</t>
-  </si>
-  <si>
-    <t>93830.00</t>
-  </si>
-  <si>
-    <t>93166.00</t>
+    <t>47500.00</t>
   </si>
 </sst>
 </file>
@@ -83,53 +80,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,6 +127,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -151,6 +143,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -158,7 +157,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,14 +179,21 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -188,22 +201,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -213,7 +210,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,187 +225,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,21 +416,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -451,8 +433,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -472,11 +469,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,23 +502,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,10 +524,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -539,10 +536,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
@@ -557,115 +554,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -999,13 +996,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="12.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
@@ -1017,7 +1014,7 @@
     <col min="8" max="16384" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1038,58 +1035,37 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="40.5" customHeight="1" spans="1:7">
       <c r="A2" s="1">
-        <v>1200008354</v>
+        <v>1000008011</v>
       </c>
       <c r="B2" s="1">
-        <v>693005660</v>
+        <v>68300084</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1">
         <v>660</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="40.5" customHeight="1" spans="1:7">
-      <c r="A3" s="1">
-        <v>1200008354</v>
-      </c>
-      <c r="B3" s="1">
-        <v>693005664</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1">
-        <v>664</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
+      <c r="F2">
+        <v>5000</v>
+      </c>
+      <c r="G2">
+        <v>4340</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="10000000027@uitest.com"/>
-    <hyperlink ref="C3" r:id="rId1" display="10000000027@uitest.com"/>
+    <hyperlink ref="C2" r:id="rId1" display="154689964@qq.com" tooltip="mailto:154689964@qq.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1119,16 +1095,16 @@
         <v>693005660</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1">
         <v>500</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G1"/>
     </row>

--- a/demo/withdrawal/test_data/withdrawal_data.xlsx
+++ b/demo/withdrawal/test_data/withdrawal_data.xlsx
@@ -3,45 +3,382 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191028" fullCalcOnLoad="1" calcCompleted="0"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
-    <font>
-      <name val="宋体"/>
-      <family val="2"/>
+  <fonts count="22">
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="宋体"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <color theme="10"/>
       <sz val="11"/>
       <u val="single"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -49,93 +386,315 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="50">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="Hyperlink" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="Hyperlink" xfId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
+    <cellStyle name="差" xfId="8" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8"/>
+    <cellStyle name="百分比" xfId="12" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
+    <cellStyle name="注释" xfId="14" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
+    <cellStyle name="标题" xfId="18" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="计算" xfId="26" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
+    <cellStyle name="汇总" xfId="31" builtinId="25"/>
+    <cellStyle name="好" xfId="32" builtinId="26"/>
+    <cellStyle name="适中" xfId="33" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -182,7 +741,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -215,26 +774,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -267,23 +809,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -425,12 +950,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -440,13 +959,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
   <cols>
     <col width="19.75" customWidth="1" style="1" min="1" max="1"/>
     <col width="14.875" customWidth="1" style="1" min="2" max="2"/>
@@ -527,9 +1046,37 @@
         <v>4340</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1000003759</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>652002187</v>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>lemon.lin@newtype.io</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>Tl123456</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>660</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>4340</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C2" display="lemon.lin@newtype.io" r:id="rId1"/>
+    <hyperlink ref="C3" display="lemon.lin@newtype.io" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/demo/withdrawal/test_data/withdrawal_data.xlsx
+++ b/demo/withdrawal/test_data/withdrawal_data.xlsx
@@ -20,14 +20,14 @@
     <font>
       <name val="等线"/>
       <charset val="134"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
       <charset val="134"/>
-      <color theme="10"/>
+      <color rgb="FF0563C1"/>
       <sz val="11"/>
       <u val="single"/>
       <scheme val="minor"/>
@@ -36,28 +36,28 @@
       <name val="等线"/>
       <charset val="0"/>
       <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
       <charset val="134"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -103,7 +103,7 @@
       <name val="等线"/>
       <charset val="134"/>
       <b val="1"/>
-      <color theme="3"/>
+      <color rgb="FF44546A"/>
       <sz val="18"/>
       <scheme val="minor"/>
     </font>
@@ -119,7 +119,7 @@
       <name val="等线"/>
       <charset val="134"/>
       <b val="1"/>
-      <color theme="3"/>
+      <color rgb="FF44546A"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -142,7 +142,7 @@
       <name val="等线"/>
       <charset val="134"/>
       <b val="1"/>
-      <color theme="3"/>
+      <color rgb="FF44546A"/>
       <sz val="15"/>
       <scheme val="minor"/>
     </font>
@@ -150,7 +150,7 @@
       <name val="等线"/>
       <charset val="134"/>
       <b val="1"/>
-      <color theme="3"/>
+      <color rgb="FF44546A"/>
       <sz val="13"/>
       <scheme val="minor"/>
     </font>
@@ -186,20 +186,20 @@
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill/>
+      <patternFill patternType="solid"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFED7D31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFECECEC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -217,31 +217,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFE598"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7CAAC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8EAADB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDADADA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,13 +253,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC8C8C8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC5E0B3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,31 +271,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FF5B9BD5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4B083"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA8D08D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBE4D5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD965"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,19 +313,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFDEEAF6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFD9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C6E7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,65 +337,81 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FF4472C4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E2F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF70AD47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9CC2E5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD6EE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="9">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left>
+        <color rgb="FF000000"/>
+      </left>
+      <right>
+        <color rgb="FF000000"/>
+      </right>
+      <top>
+        <color rgb="FF000000"/>
+      </top>
+      <bottom>
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal>
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left>
+        <color rgb="FF000000"/>
+      </left>
+      <right>
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF4472C4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF4472C4"/>
       </bottom>
-      <diagonal/>
+      <diagonal>
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -410,7 +426,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal>
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -425,7 +443,9 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal>
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -440,25 +460,43 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal>
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left>
+        <color rgb="FF000000"/>
+      </left>
+      <right>
+        <color rgb="FF000000"/>
+      </right>
+      <top>
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF4472C4"/>
       </bottom>
-      <diagonal/>
+      <diagonal>
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left>
+        <color rgb="FF000000"/>
+      </left>
+      <right>
+        <color rgb="FF000000"/>
+      </right>
+      <top>
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFA1B8E1"/>
       </bottom>
-      <diagonal/>
+      <diagonal>
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -473,16 +511,26 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal>
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left>
+        <color rgb="FF000000"/>
+      </left>
+      <right>
+        <color rgb="FF000000"/>
+      </right>
+      <top>
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal>
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="50">
@@ -563,7 +611,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyAlignment="1">
@@ -638,7 +686,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -695,6 +743,74 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -962,10 +1078,10 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection pane="topLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col width="19.75" customWidth="1" style="1" min="1" max="1"/>
     <col width="14.875" customWidth="1" style="1" min="2" max="2"/>
@@ -1023,8 +1139,10 @@
       <c r="A2" s="1" t="n">
         <v>1000003759</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>632000108</v>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 67201785</t>
+        </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
@@ -1040,10 +1158,10 @@
         <v>660</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>49501</v>
+        <v>14572.92</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>4340</v>
+        <v>13912.92</v>
       </c>
     </row>
     <row r="3">
